--- a/Result/checksun/電器電纜.xlsx
+++ b/Result/checksun/電器電纜.xlsx
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>-9826598</v>
+        <v>9228185</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>6624465</v>
+        <v>25701002</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>4983686</v>
+        <v>32487830</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>14464944</v>
+        <v>16651315</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>2246004</v>
+        <v>-3420284</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>3699508</v>
+        <v>-18994958</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>4589839</v>
+        <v>-16039838</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>16830533</v>
+        <v>-15288084</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>23804636</v>
+        <v>-30185168</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>-2403468</v>
+        <v>-42504084</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>-22496821</v>
+        <v>-40080652</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>-46499102</v>
+        <v>-64315788</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>-7993438</v>
+        <v>892363</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>-7078607</v>
+        <v>5265887</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>3299813</v>
+        <v>15189269</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>2751341</v>
+        <v>12073584</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>2920769</v>
+        <v>15493965</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>5091327</v>
+        <v>11918770</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>6134460</v>
+        <v>9046343</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>9423725</v>
+        <v>10215415</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>6798129</v>
+        <v>6204727</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>3187783</v>
+        <v>1846778</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>3149471</v>
+        <v>3217334</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>29314</v>
+        <v>-2991224</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>-909</v>
+        <v>-6956</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>-3206</v>
+        <v>-6205</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>-3291</v>
+        <v>4905</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>-4029</v>
+        <v>4818</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>-6454</v>
+        <v>13347</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-1019</v>
+        <v>14009</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>-2018</v>
+        <v>13709</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>3455</v>
+        <v>16428</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>9215</v>
+        <v>14054</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>10865</v>
+        <v>13060</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>16346</v>
+        <v>23698</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>5813</v>
+        <v>18688</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>310320</v>
+        <v>536592</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>-1331747</v>
+        <v>-1336131</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>1420259</v>
+        <v>-1309808</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>74528</v>
+        <v>1313989</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>1773047</v>
+        <v>3315183</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>-203739</v>
+        <v>1329239</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>151744</v>
+        <v>781995</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>-1777431</v>
+        <v>299809</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>-2526328</v>
+        <v>419241</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>1087717</v>
+        <v>437636</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>3319567</v>
+        <v>2013408</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>4059306</v>
+        <v>3726073</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>144286857</v>
+        <v>1334620915</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>83881327</v>
+        <v>1479198789</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>176415735</v>
+        <v>1776003559</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>74149189</v>
+        <v>1220551823</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>976932840</v>
+        <v>1431210742</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>1465348107</v>
+        <v>1576034718</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>1116184869</v>
+        <v>1120384596</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>418384622</v>
+        <v>413979818</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>134239717</v>
+        <v>67037349</v>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>30217765</v>
+        <v>-58010314</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>35893280</v>
+        <v>-12692200</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>-23553106</v>
+        <v>33314552</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>-2498344</v>
+        <v>-9246359</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>2799790</v>
+        <v>-3410807</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
@@ -12111,7 +12111,7 @@
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>-1960698</v>
+        <v>-2341576</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>2169094</v>
+        <v>-6009084</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>-5246333</v>
+        <v>-1032631</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>-11051440</v>
+        <v>-8397723</v>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>-8917109</v>
+        <v>8615212</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>-964264</v>
+        <v>19762718</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>10670562</v>
+        <v>23507237</v>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>738931</v>
+        <v>15141150</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>5177966</v>
+        <v>18988179</v>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>-8016845</v>
+        <v>22414732</v>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>34806164</v>
+        <v>-15648795</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>169117408</v>
+        <v>45561833</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>51093699</v>
+        <v>-96114098</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>30309910</v>
+        <v>-273360072</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>-68253014</v>
+        <v>-148880601</v>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>-123872798</v>
+        <v>-182445640</v>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>-80764869</v>
+        <v>-74367990</v>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>-55302561</v>
+        <v>17512919</v>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>-23334999</v>
+        <v>125712704</v>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>-222905113</v>
+        <v>10017674</v>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>-25325026</v>
+        <v>86545602</v>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>-35237843</v>
+        <v>180474165</v>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         </is>
       </c>
       <c r="AB86" t="n">
-        <v>-6700651</v>
+        <v>-15275657</v>
       </c>
       <c r="AC86" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         </is>
       </c>
       <c r="AB87" t="n">
-        <v>-13240445</v>
+        <v>-13685839</v>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="AB88" t="n">
-        <v>-10810322</v>
+        <v>-6402485</v>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         </is>
       </c>
       <c r="AB89" t="n">
-        <v>-351751</v>
+        <v>-4435092</v>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
@@ -17025,7 +17025,7 @@
         </is>
       </c>
       <c r="AB90" t="n">
-        <v>-4330553</v>
+        <v>1096656</v>
       </c>
       <c r="AC90" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         </is>
       </c>
       <c r="AB91" t="n">
-        <v>-14319351</v>
+        <v>9399316</v>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         </is>
       </c>
       <c r="AB92" t="n">
-        <v>-8223255</v>
+        <v>768893</v>
       </c>
       <c r="AC92" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>3885159</v>
+        <v>2028345</v>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>18727188</v>
+        <v>9112376</v>
       </c>
       <c r="AC94" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>4139914</v>
+        <v>-9055361</v>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>1542050</v>
+        <v>-4459444</v>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         </is>
       </c>
       <c r="AB97" t="n">
-        <v>4991479</v>
+        <v>-165080</v>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         </is>
       </c>
       <c r="AB98" t="n">
-        <v>4944528</v>
+        <v>45987506</v>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         </is>
       </c>
       <c r="AB99" t="n">
-        <v>3735132</v>
+        <v>48209640</v>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         </is>
       </c>
       <c r="AB100" t="n">
-        <v>-1770643</v>
+        <v>46824563</v>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         </is>
       </c>
       <c r="AB101" t="n">
-        <v>4150941</v>
+        <v>42187014</v>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         </is>
       </c>
       <c r="AB102" t="n">
-        <v>30432651</v>
+        <v>44980364</v>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         </is>
       </c>
       <c r="AB103" t="n">
-        <v>45210105</v>
+        <v>46613581</v>
       </c>
       <c r="AC103" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         </is>
       </c>
       <c r="AB104" t="n">
-        <v>36892037</v>
+        <v>35213020</v>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="AB105" t="n">
-        <v>14041857</v>
+        <v>8829733</v>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="AB106" t="n">
-        <v>3385101</v>
+        <v>-1370639</v>
       </c>
       <c r="AC106" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         </is>
       </c>
       <c r="AB107" t="n">
-        <v>1144036</v>
+        <v>-5811117</v>
       </c>
       <c r="AC107" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         </is>
       </c>
       <c r="AB108" t="n">
-        <v>505856</v>
+        <v>-1797320</v>
       </c>
       <c r="AC108" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         </is>
       </c>
       <c r="AB109" t="n">
-        <v>-1981625</v>
+        <v>2569104</v>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="AB110" t="n">
-        <v>-4964879</v>
+        <v>36170153</v>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         </is>
       </c>
       <c r="AB111" t="n">
-        <v>19089371</v>
+        <v>55832376</v>
       </c>
       <c r="AC111" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         </is>
       </c>
       <c r="AB112" t="n">
-        <v>-4082237</v>
+        <v>53889074</v>
       </c>
       <c r="AC112" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         </is>
       </c>
       <c r="AB113" t="n">
-        <v>16926026</v>
+        <v>53785859</v>
       </c>
       <c r="AC113" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         </is>
       </c>
       <c r="AB114" t="n">
-        <v>-23903003</v>
+        <v>57530612</v>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         </is>
       </c>
       <c r="AB115" t="n">
-        <v>20353314</v>
+        <v>57679870</v>
       </c>
       <c r="AC115" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         </is>
       </c>
       <c r="AB116" t="n">
-        <v>24209006</v>
+        <v>31610629</v>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         </is>
       </c>
       <c r="AB117" t="n">
-        <v>60646008</v>
+        <v>65796428</v>
       </c>
       <c r="AC117" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="AB118" t="n">
-        <v>37617997</v>
+        <v>13541535</v>
       </c>
       <c r="AC118" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="AB119" t="n">
-        <v>12650827</v>
+        <v>-19337348</v>
       </c>
       <c r="AC119" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         </is>
       </c>
       <c r="AB120" t="n">
-        <v>20787607</v>
+        <v>-12391683</v>
       </c>
       <c r="AC120" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         </is>
       </c>
       <c r="AB121" t="n">
-        <v>-291441</v>
+        <v>10203931</v>
       </c>
       <c r="AC121" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         </is>
       </c>
       <c r="AB122" t="n">
-        <v>4364562</v>
+        <v>1872230</v>
       </c>
       <c r="AC122" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         </is>
       </c>
       <c r="AB123" t="n">
-        <v>3882941</v>
+        <v>7075965</v>
       </c>
       <c r="AC123" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         </is>
       </c>
       <c r="AB124" t="n">
-        <v>-2681895</v>
+        <v>9156304</v>
       </c>
       <c r="AC124" t="inlineStr">
         <is>
@@ -23520,7 +23520,7 @@
         </is>
       </c>
       <c r="AB125" t="n">
-        <v>4376419</v>
+        <v>16483645</v>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         </is>
       </c>
       <c r="AB126" t="n">
-        <v>-3166434</v>
+        <v>20422643</v>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         </is>
       </c>
       <c r="AB127" t="n">
-        <v>-7884455</v>
+        <v>26559978</v>
       </c>
       <c r="AC127" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="AB128" t="n">
-        <v>-6868751</v>
+        <v>18002307</v>
       </c>
       <c r="AC128" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         </is>
       </c>
       <c r="AB129" t="n">
-        <v>6359458</v>
+        <v>20830713</v>
       </c>
       <c r="AC129" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         </is>
       </c>
       <c r="AB130" t="n">
-        <v>19722654</v>
+        <v>23711391</v>
       </c>
       <c r="AC130" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="AB131" t="n">
-        <v>18975977</v>
+        <v>11631920</v>
       </c>
       <c r="AC131" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         </is>
       </c>
       <c r="AB132" t="n">
-        <v>17229619</v>
+        <v>12025183</v>
       </c>
       <c r="AC132" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         </is>
       </c>
       <c r="AB133" t="n">
-        <v>14721779</v>
+        <v>18849288</v>
       </c>
       <c r="AC133" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         </is>
       </c>
       <c r="AB134" t="n">
-        <v>-61938286</v>
+        <v>120165233</v>
       </c>
       <c r="AC134" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         </is>
       </c>
       <c r="AB135" t="n">
-        <v>175555474</v>
+        <v>343185108</v>
       </c>
       <c r="AC135" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         </is>
       </c>
       <c r="AB136" t="n">
-        <v>-177323856</v>
+        <v>296474791</v>
       </c>
       <c r="AC136" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         </is>
       </c>
       <c r="AB137" t="n">
-        <v>13124185</v>
+        <v>177061737</v>
       </c>
       <c r="AC137" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         </is>
       </c>
       <c r="AB138" t="n">
-        <v>-467636783</v>
+        <v>315648365</v>
       </c>
       <c r="AC138" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         </is>
       </c>
       <c r="AB139" t="n">
-        <v>156352873</v>
+        <v>445827314</v>
       </c>
       <c r="AC139" t="inlineStr">
         <is>
@@ -26275,7 +26275,7 @@
         </is>
       </c>
       <c r="AB140" t="n">
-        <v>168979334</v>
+        <v>181546901</v>
       </c>
       <c r="AC140" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         </is>
       </c>
       <c r="AB141" t="n">
-        <v>635266417</v>
+        <v>486160959</v>
       </c>
       <c r="AC141" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         </is>
       </c>
       <c r="AB142" t="n">
-        <v>317445774</v>
+        <v>-26623271</v>
       </c>
       <c r="AC142" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         </is>
       </c>
       <c r="AB143" t="n">
-        <v>-5041782</v>
+        <v>-301023978</v>
       </c>
       <c r="AC143" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         </is>
       </c>
       <c r="AB144" t="n">
-        <v>148018731</v>
+        <v>-220410529</v>
       </c>
       <c r="AC144" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         </is>
       </c>
       <c r="AB145" t="n">
-        <v>-27971333</v>
+        <v>-101385877</v>
       </c>
       <c r="AC145" t="inlineStr">
         <is>
@@ -27369,7 +27369,7 @@
         </is>
       </c>
       <c r="AB146" t="n">
-        <v>-19516848</v>
+        <v>143144250</v>
       </c>
       <c r="AC146" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         </is>
       </c>
       <c r="AB147" t="n">
-        <v>29610507</v>
+        <v>186140202</v>
       </c>
       <c r="AC147" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         </is>
       </c>
       <c r="AB148" t="n">
-        <v>-27206569</v>
+        <v>179912925</v>
       </c>
       <c r="AC148" t="inlineStr">
         <is>
@@ -27936,7 +27936,7 @@
         </is>
       </c>
       <c r="AB149" t="n">
-        <v>-37747986</v>
+        <v>184870099</v>
       </c>
       <c r="AC149" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="AB150" t="n">
-        <v>36344925</v>
+        <v>190948444</v>
       </c>
       <c r="AC150" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         </is>
       </c>
       <c r="AB151" t="n">
-        <v>130883499</v>
+        <v>190509942</v>
       </c>
       <c r="AC151" t="inlineStr">
         <is>
@@ -28503,7 +28503,7 @@
         </is>
       </c>
       <c r="AB152" t="n">
-        <v>200409084</v>
+        <v>199334172</v>
       </c>
       <c r="AC152" t="inlineStr">
         <is>
@@ -28692,7 +28692,7 @@
         </is>
       </c>
       <c r="AB153" t="n">
-        <v>120184770</v>
+        <v>81365108</v>
       </c>
       <c r="AC153" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         </is>
       </c>
       <c r="AB154" t="n">
-        <v>76235995</v>
+        <v>40112536</v>
       </c>
       <c r="AC154" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         </is>
       </c>
       <c r="AB155" t="n">
-        <v>22209001</v>
+        <v>-42242995</v>
       </c>
       <c r="AC155" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         </is>
       </c>
       <c r="AB156" t="n">
-        <v>34418749</v>
+        <v>-8688582</v>
       </c>
       <c r="AC156" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         </is>
       </c>
       <c r="AB157" t="n">
-        <v>-16609552</v>
+        <v>38516351</v>
       </c>
       <c r="AC157" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         </is>
       </c>
       <c r="AB158" t="n">
-        <v>1736526997</v>
+        <v>2739831600</v>
       </c>
       <c r="AC158" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         </is>
       </c>
       <c r="AB159" t="n">
-        <v>919993774</v>
+        <v>2003961049</v>
       </c>
       <c r="AC159" t="inlineStr">
         <is>
@@ -29991,7 +29991,7 @@
         </is>
       </c>
       <c r="AB160" t="n">
-        <v>294070249</v>
+        <v>1215055552</v>
       </c>
       <c r="AC160" t="inlineStr">
         <is>
@@ -30180,7 +30180,7 @@
         </is>
       </c>
       <c r="AB161" t="n">
-        <v>379009696</v>
+        <v>857561883</v>
       </c>
       <c r="AC161" t="inlineStr">
         <is>
@@ -30369,7 +30369,7 @@
         </is>
       </c>
       <c r="AB162" t="n">
-        <v>168342807</v>
+        <v>1376577205</v>
       </c>
       <c r="AC162" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         </is>
       </c>
       <c r="AB163" t="n">
-        <v>294547363</v>
+        <v>1253240051</v>
       </c>
       <c r="AC163" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         </is>
       </c>
       <c r="AB164" t="n">
-        <v>624294907</v>
+        <v>774776108</v>
       </c>
       <c r="AC164" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         </is>
       </c>
       <c r="AB165" t="n">
-        <v>915624468</v>
+        <v>1098919716</v>
       </c>
       <c r="AC165" t="inlineStr">
         <is>
@@ -31101,7 +31101,7 @@
         </is>
       </c>
       <c r="AB166" t="n">
-        <v>626437940</v>
+        <v>374126570</v>
       </c>
       <c r="AC166" t="inlineStr">
         <is>
@@ -31282,7 +31282,7 @@
         </is>
       </c>
       <c r="AB167" t="n">
-        <v>-145742720</v>
+        <v>-607452024</v>
       </c>
       <c r="AC167" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         </is>
       </c>
       <c r="AB168" t="n">
-        <v>292609930</v>
+        <v>-101536255</v>
       </c>
       <c r="AC168" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         </is>
       </c>
       <c r="AB169" t="n">
-        <v>332254748</v>
+        <v>60705094</v>
       </c>
       <c r="AC169" t="inlineStr">
         <is>
@@ -31825,7 +31825,7 @@
         </is>
       </c>
       <c r="AB170" t="n">
-        <v>7840616</v>
+        <v>48533998</v>
       </c>
       <c r="AC170" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         </is>
       </c>
       <c r="AB171" t="n">
-        <v>22628279</v>
+        <v>57090381</v>
       </c>
       <c r="AC171" t="inlineStr">
         <is>
@@ -32187,7 +32187,7 @@
         </is>
       </c>
       <c r="AB172" t="n">
-        <v>22705427</v>
+        <v>56796859</v>
       </c>
       <c r="AC172" t="inlineStr">
         <is>
@@ -32368,7 +32368,7 @@
         </is>
       </c>
       <c r="AB173" t="n">
-        <v>22529695</v>
+        <v>50555081</v>
       </c>
       <c r="AC173" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         </is>
       </c>
       <c r="AB174" t="n">
-        <v>22196189</v>
+        <v>47209151</v>
       </c>
       <c r="AC174" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         </is>
       </c>
       <c r="AB175" t="n">
-        <v>22754383</v>
+        <v>37472685</v>
       </c>
       <c r="AC175" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         </is>
       </c>
       <c r="AB176" t="n">
-        <v>18163687</v>
+        <v>20258660</v>
       </c>
       <c r="AC176" t="inlineStr">
         <is>
@@ -33092,7 +33092,7 @@
         </is>
       </c>
       <c r="AB177" t="n">
-        <v>12265913</v>
+        <v>15891670</v>
       </c>
       <c r="AC177" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         </is>
       </c>
       <c r="AB178" t="n">
-        <v>11337049</v>
+        <v>2427552</v>
       </c>
       <c r="AC178" t="inlineStr">
         <is>
@@ -33454,7 +33454,7 @@
         </is>
       </c>
       <c r="AB179" t="n">
-        <v>9861699</v>
+        <v>-11400595</v>
       </c>
       <c r="AC179" t="inlineStr">
         <is>
@@ -33635,7 +33635,7 @@
         </is>
       </c>
       <c r="AB180" t="n">
-        <v>12747049</v>
+        <v>-5587525</v>
       </c>
       <c r="AC180" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         </is>
       </c>
       <c r="AB181" t="n">
-        <v>3381253</v>
+        <v>-23132890</v>
       </c>
       <c r="AC181" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         </is>
       </c>
       <c r="AB182" t="n">
-        <v>35763910</v>
+        <v>80810653</v>
       </c>
       <c r="AC182" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         </is>
       </c>
       <c r="AB183" t="n">
-        <v>27856270</v>
+        <v>72059627</v>
       </c>
       <c r="AC183" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         </is>
       </c>
       <c r="AB184" t="n">
-        <v>19768415</v>
+        <v>65173825</v>
       </c>
       <c r="AC184" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         </is>
       </c>
       <c r="AB185" t="n">
-        <v>-16483732</v>
+        <v>52798877</v>
       </c>
       <c r="AC185" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         </is>
       </c>
       <c r="AB186" t="n">
-        <v>23054277</v>
+        <v>53951708</v>
       </c>
       <c r="AC186" t="inlineStr">
         <is>
@@ -34950,7 +34950,7 @@
         </is>
       </c>
       <c r="AB187" t="n">
-        <v>24625174</v>
+        <v>40686961</v>
       </c>
       <c r="AC187" t="inlineStr">
         <is>
@@ -35139,7 +35139,7 @@
         </is>
       </c>
       <c r="AB188" t="n">
-        <v>61530475</v>
+        <v>64886835</v>
       </c>
       <c r="AC188" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         </is>
       </c>
       <c r="AB189" t="n">
-        <v>21149080</v>
+        <v>23794729</v>
       </c>
       <c r="AC189" t="inlineStr">
         <is>
@@ -35517,7 +35517,7 @@
         </is>
       </c>
       <c r="AB190" t="n">
-        <v>20780236</v>
+        <v>28677847</v>
       </c>
       <c r="AC190" t="inlineStr">
         <is>
@@ -35698,7 +35698,7 @@
         </is>
       </c>
       <c r="AB191" t="n">
-        <v>7752134</v>
+        <v>32298492</v>
       </c>
       <c r="AC191" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         </is>
       </c>
       <c r="AB192" t="n">
-        <v>9748351</v>
+        <v>36570870</v>
       </c>
       <c r="AC192" t="inlineStr">
         <is>
@@ -36060,7 +36060,7 @@
         </is>
       </c>
       <c r="AB193" t="n">
-        <v>-4718449</v>
+        <v>42095348</v>
       </c>
       <c r="AC193" t="inlineStr">
         <is>

--- a/Result/checksun/電器電纜.xlsx
+++ b/Result/checksun/電器電纜.xlsx
@@ -722,16 +722,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1160,20 +1160,20 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -1382,17 +1382,17 @@
         <v>-1</v>
       </c>
       <c r="B5" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -1598,20 +1598,20 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-5</v>
+        <v>-13</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2036,20 +2036,20 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B8" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>-3</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -2258,17 +2258,17 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -2474,20 +2474,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -3130,13 +3130,13 @@
         <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3358,16 +3358,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3585,16 +3585,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3812,16 +3812,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -4031,16 +4031,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -4250,20 +4250,20 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -4469,20 +4469,20 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
         <v>-1</v>
       </c>
       <c r="D19" t="n">
-        <v>24</v>
+        <v>-4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -4688,20 +4688,20 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -4907,20 +4907,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -5560,16 +5560,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -5775,20 +5775,20 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
         <v>3</v>
       </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -5993,10 +5993,10 @@
         <v>-4</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -6205,13 +6205,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D27" t="n">
         <v>-1</v>
@@ -6420,16 +6420,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
         <v>-2</v>
       </c>
       <c r="D28" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6635,13 +6635,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -6853,17 +6853,17 @@
         <v>-1</v>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -7065,13 +7065,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -7280,20 +7280,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -7924,13 +7924,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -8141,13 +8141,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -8358,13 +8358,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -8575,13 +8575,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -8792,17 +8792,17 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
         <v>1</v>
       </c>
-      <c r="D39" t="n">
-        <v>3</v>
-      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -9006,16 +9006,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -9223,20 +9223,20 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -9443,17 +9443,17 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -9657,20 +9657,20 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -10307,17 +10307,17 @@
         <v>3</v>
       </c>
       <c r="B46" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -10527,16 +10527,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B47" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D47" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -10750,13 +10750,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -10976,10 +10976,10 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -11196,20 +11196,20 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -11419,16 +11419,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -11642,20 +11642,20 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C52" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -11865,20 +11865,20 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -12088,20 +12088,20 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -12753,13 +12753,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -12972,13 +12972,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -13191,10 +13191,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
         <v>-1</v>
@@ -13410,16 +13410,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D60" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -13637,16 +13637,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -13864,20 +13864,20 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -14091,20 +14091,20 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B63" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -14321,13 +14321,13 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -14548,17 +14548,17 @@
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -15222,20 +15222,20 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B68" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-21</v>
+        <v>-1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -15445,20 +15445,20 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="B69" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-17</v>
+        <v>-4</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -15668,20 +15668,20 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="B70" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>-11</v>
+        <v>-20</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -15891,16 +15891,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="B71" t="n">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D71" t="n">
-        <v>-25</v>
+        <v>-14</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -16122,20 +16122,20 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="B72" t="n">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>-17</v>
+        <v>-10</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -16353,20 +16353,20 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="B73" t="n">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="C73" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D73" t="n">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -16584,20 +16584,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="B74" t="n">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>140</v>
+        <v>-6</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -16815,20 +16815,20 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -17046,20 +17046,20 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -17738,13 +17738,13 @@
         <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -17957,13 +17957,13 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -18176,17 +18176,17 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C81" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -18392,16 +18392,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -18611,16 +18611,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D83" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -18830,20 +18830,20 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B84" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -19049,20 +19049,20 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C85" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>27</v>
+        <v>-7</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -19271,17 +19271,17 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -19487,20 +19487,20 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -20143,17 +20143,17 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-7</v>
+        <v>-18</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -20362,13 +20362,13 @@
         <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C91" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -20578,16 +20578,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -20800,13 +20800,13 @@
         <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -21019,13 +21019,13 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D94" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -21235,16 +21235,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -21454,20 +21454,20 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C96" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>42</v>
+        <v>-7</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -21673,16 +21673,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -21892,20 +21892,20 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -22775,13 +22775,13 @@
         <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -22991,16 +22991,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -23210,20 +23210,20 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C104" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -23429,20 +23429,20 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B105" t="n">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -23651,17 +23651,17 @@
         <v>-1</v>
       </c>
       <c r="B106" t="n">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D106" t="n">
-        <v>-46</v>
+        <v>-10</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
@@ -23867,20 +23867,20 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="C107" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>126</v>
+        <v>-8</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -24089,17 +24089,17 @@
         <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -24305,20 +24305,20 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -24958,13 +24958,13 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B112" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -25184,10 +25184,10 @@
         <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -25400,13 +25400,13 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C114" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -25619,16 +25619,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B115" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C115" t="n">
         <v>-1</v>
       </c>
       <c r="D115" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -25838,20 +25838,20 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D116" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -26057,13 +26057,13 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B117" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -26276,20 +26276,20 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B118" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C118" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D118" t="n">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -26495,20 +26495,20 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -26714,20 +26714,20 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -27367,16 +27367,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B123" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
         <v>-1</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -27590,10 +27590,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -27813,13 +27813,13 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C125" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -28036,13 +28036,13 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -28259,16 +28259,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B127" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C127" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D127" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -28482,16 +28482,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B128" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C128" t="n">
         <v>2</v>
       </c>
       <c r="D128" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -28705,20 +28705,20 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C129" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -28931,17 +28931,17 @@
         <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -29151,20 +29151,20 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -29832,16 +29832,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B134" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D134" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -30055,13 +30055,13 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D135" t="n">
         <v>-1</v>
@@ -30278,13 +30278,13 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B136" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C136" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -30501,13 +30501,13 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C137" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
         <v>-1</v>
@@ -30724,20 +30724,20 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B138" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C138" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="D138" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -30947,20 +30947,20 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="B139" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C139" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D139" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -31170,20 +31170,20 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B140" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C140" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D140" t="n">
-        <v>28</v>
+        <v>-4</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -31393,20 +31393,20 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -31616,20 +31616,20 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -32284,17 +32284,17 @@
         <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D145" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -32512,20 +32512,20 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B146" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D146" t="n">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
@@ -32739,20 +32739,20 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B147" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C147" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="D147" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
@@ -32966,16 +32966,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C148" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -33193,20 +33193,20 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B149" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="D149" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F149" t="inlineStr"/>
@@ -33423,17 +33423,17 @@
         <v>7</v>
       </c>
       <c r="B150" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
@@ -33639,20 +33639,20 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B151" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C151" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D151" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -33858,20 +33858,20 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -34077,20 +34077,20 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -34733,13 +34733,13 @@
         <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C156" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -34949,16 +34949,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -35168,10 +35168,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C158" t="n">
         <v>-1</v>
@@ -35387,16 +35387,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B159" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -35606,20 +35606,20 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B160" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -35825,16 +35825,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="C161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -36044,20 +36044,20 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B162" t="n">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="C162" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D162" t="n">
-        <v>137</v>
+        <v>-93</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -36263,16 +36263,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -36482,20 +36482,20 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -37135,16 +37135,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B167" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D167" t="n">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -37361,10 +37361,10 @@
         <v>-1</v>
       </c>
       <c r="B168" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
         <v>-9</v>
@@ -37581,16 +37581,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B169" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -37804,16 +37804,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B170" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C170" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -38027,20 +38027,20 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B171" t="n">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D171" t="n">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -38250,20 +38250,20 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="n">
         <v>2</v>
       </c>
-      <c r="D172" t="n">
-        <v>-29</v>
-      </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -38481,20 +38481,20 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="B173" t="n">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="C173" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>99</v>
+        <v>-8</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -38712,20 +38712,20 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -38943,20 +38943,20 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
